--- a/classification/droptc/sentence/neo-bert/freeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8037089109420776</v>
+        <v>0.810452401638031</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97467041015625</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5157196521759033</v>
+        <v>0.5088158845901489</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9786247611045837</v>
+        <v>0.7298457622528076</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.835105836391449</v>
+        <v>0.9981702566146851</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8875746130943298</v>
+        <v>0.9982210993766785</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5443177223205566</v>
+        <v>0.9894565939903259</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6577585935592651</v>
+        <v>0.9857704639434814</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9597823619842529</v>
+        <v>0.9894565939903259</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8741832375526428</v>
+        <v>0.9902475476264954</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7906286716461182</v>
+        <v>0.9953182339668274</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9891635179519653</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3727729916572571</v>
+        <v>0.9942193031311035</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3709772825241089</v>
+        <v>0.5701573491096497</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2884039282798767</v>
+        <v>0.9168432950973511</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.824427604675293</v>
+        <v>0.9486144185066223</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7967677116394043</v>
+        <v>0.7456066608428955</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9966530203819275</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6334977746009827</v>
+        <v>0.9222089648246765</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7186896800994873</v>
+        <v>0.9990322589874268</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7449973821640015</v>
+        <v>0.9847915172576904</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7449973821640015</v>
+        <v>0.984214723110199</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8154615163803101</v>
+        <v>0.9962096214294434</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.404629647731781</v>
+        <v>0.3577467799186707</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4492718577384949</v>
+        <v>0.5821666121482849</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8898101449012756</v>
+        <v>0.9986488223075867</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.743897557258606</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8702642917633057</v>
+        <v>0.9947065711021423</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8266467452049255</v>
+        <v>0.9800901412963867</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7651156783103943</v>
+        <v>0.9829736948013306</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9086970686912537</v>
+        <v>0.81825190782547</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9476765394210815</v>
+        <v>0.9494420289993286</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9447532892227173</v>
+        <v>0.964962363243103</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8335274457931519</v>
+        <v>0.997433602809906</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5525623559951782</v>
+        <v>0.9975939393043518</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8505218625068665</v>
+        <v>0.9577983021736145</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7082655429840088</v>
+        <v>0.9985471367835999</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9688799381256104</v>
+        <v>0.9822719097137451</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.77531898021698</v>
+        <v>0.4410739541053772</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4350803196430206</v>
+        <v>0.9467361569404602</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7105433940887451</v>
+        <v>0.9680640697479248</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.675227165222168</v>
+        <v>0.9960054755210876</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9384270906448364</v>
+        <v>0.5269657969474792</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8368991017341614</v>
+        <v>0.9725668430328369</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5363796949386597</v>
+        <v>0.8631099462509155</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3382306396961212</v>
+        <v>0.883630633354187</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9335808157920837</v>
+        <v>0.9944392442703247</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9681921005249023</v>
+        <v>0.9977059364318848</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.590977668762207</v>
+        <v>0.9987853169441223</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4248301088809967</v>
+        <v>0.4773014187812805</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8592394590377808</v>
+        <v>0.8336158394813538</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8424376845359802</v>
+        <v>0.9987853169441223</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9055739045143127</v>
+        <v>0.8656008839607239</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4368126690387726</v>
+        <v>0.9985710382461548</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9675657153129578</v>
+        <v>0.9989637136459351</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.552160382270813</v>
+        <v>0.9891704916954041</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3445713222026825</v>
+        <v>0.9609951972961426</v>
       </c>
     </row>
     <row r="59">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7454091310501099</v>
+        <v>0.9943593144416809</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9664547443389893</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6241613626480103</v>
+        <v>0.9878394603729248</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7617647647857666</v>
+        <v>0.9977722764015198</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8584393262863159</v>
+        <v>0.8510860800743103</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9522225260734558</v>
+        <v>0.8095523118972778</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9074817299842834</v>
+        <v>0.9952672719955444</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6714720726013184</v>
+        <v>0.9952672719955444</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.4464532434940338</v>
+        <v>0.7821422815322876</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9221723675727844</v>
+        <v>0.9952672719955444</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7898064255714417</v>
+        <v>0.9311810731887817</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4472154080867767</v>
+        <v>0.9417216777801514</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9872196912765503</v>
+        <v>0.9630377888679504</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6334977746009827</v>
+        <v>0.9971856474876404</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9750490188598633</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7449973821640015</v>
+        <v>0.6212614178657532</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9411773085594177</v>
+        <v>0.8821109533309937</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8996404409408569</v>
+        <v>0.9750490188598633</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9118654727935791</v>
+        <v>0.9433689117431641</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8737789392471313</v>
+        <v>0.9750490188598633</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6572465300559998</v>
+        <v>0.9997134804725647</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9396309852600098</v>
+        <v>0.9703367948532104</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7918754816055298</v>
+        <v>0.8777050375938416</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8593917489051819</v>
+        <v>0.9703367948532104</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.4249694645404816</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7967677116394043</v>
+        <v>0.4249694645404816</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8167334198951721</v>
+        <v>0.9999501705169678</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9357366561889648</v>
+        <v>0.9970893263816833</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7855877876281738</v>
+        <v>0.8968648314476013</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9608874320983887</v>
+        <v>0.9866964221000671</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8404227495193481</v>
+        <v>0.9246997237205505</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5349938273429871</v>
+        <v>0.9962502121925354</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9081282019615173</v>
+        <v>0.995792031288147</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9950981736183167</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7145837545394897</v>
+        <v>0.9952681660652161</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6334977746009827</v>
+        <v>0.9952018260955811</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5590288639068604</v>
+        <v>0.9952580332756042</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4382605850696564</v>
+        <v>0.7878651022911072</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7911334037780762</v>
+        <v>0.8955696225166321</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.664277195930481</v>
+        <v>0.9988787770271301</v>
       </c>
     </row>
     <row r="99">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4680244922637939</v>
+        <v>0.756784975528717</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8620160818099976</v>
+        <v>0.9911485910415649</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6937727928161621</v>
+        <v>0.926213800907135</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.940514862537384</v>
+        <v>0.6894677877426147</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9565678238868713</v>
+        <v>0.6291930079460144</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3982966244220734</v>
+        <v>0.8425180315971375</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.990433931350708</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9403948783874512</v>
+        <v>0.953715980052948</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4680244922637939</v>
+        <v>0.8972572684288025</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9433958530426025</v>
+        <v>0.9668498635292053</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8940335512161255</v>
+        <v>0.9394113421440125</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6721974015235901</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7866168618202209</v>
+        <v>0.9463290572166443</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7671514749526978</v>
+        <v>0.9504601359367371</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6392828226089478</v>
+        <v>0.9611725211143494</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5820344090461731</v>
+        <v>0.9725515246391296</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4100907444953918</v>
+        <v>0.7481911778450012</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5113388895988464</v>
+        <v>0.8996314406394958</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5772916674613953</v>
+        <v>0.9960577487945557</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6339026689529419</v>
+        <v>0.9651286602020264</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7569546699523926</v>
+        <v>0.4301402866840363</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8473706245422363</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3937979340553284</v>
+        <v>0.9793478846549988</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6501738429069519</v>
+        <v>0.999151349067688</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8464630246162415</v>
+        <v>0.9793478846549988</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9029884934425354</v>
+        <v>0.999151349067688</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.4610274434089661</v>
+        <v>0.9793478846549988</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7789570093154907</v>
+        <v>0.9999595880508423</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8603892922401428</v>
+        <v>0.5337334275245667</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4895911514759064</v>
+        <v>0.6680527925491333</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6591508388519287</v>
+        <v>0.7018933296203613</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3950044214725494</v>
+        <v>0.999322772026062</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9299678802490234</v>
+        <v>0.5105119347572327</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8015019297599792</v>
+        <v>0.9851176738739014</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7481222748756409</v>
+        <v>0.8959580659866333</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8246042728424072</v>
+        <v>0.8549418449401855</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9345498085021973</v>
+        <v>0.9583820700645447</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9526687860488892</v>
+        <v>0.9895769357681274</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8284775018692017</v>
+        <v>0.858654260635376</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4474556148052216</v>
+        <v>0.9969647526741028</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6933852434158325</v>
+        <v>0.9879189133644104</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6467428207397461</v>
+        <v>0.9629837274551392</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5302506685256958</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6854991316795349</v>
+        <v>0.68524169921875</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5525082349777222</v>
+        <v>0.9982215762138367</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4187788963317871</v>
+        <v>0.68524169921875</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8642928004264832</v>
+        <v>0.9981247782707214</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4083335697650909</v>
+        <v>0.9311810731887817</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6147715449333191</v>
+        <v>0.9307962656021118</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4636454880237579</v>
+        <v>0.9081428647041321</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4339926838874817</v>
+        <v>0.754101574420929</v>
       </c>
     </row>
     <row r="151">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4659,10 +4659,10 @@
         </is>
       </c>
       <c r="E151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8116371035575867</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8686931133270264</v>
+        <v>0.930528461933136</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8697290420532227</v>
+        <v>0.9992419481277466</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5701673030853271</v>
+        <v>0.9775568842887878</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9583487510681152</v>
+        <v>0.9883313775062561</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7975277304649353</v>
+        <v>0.9837750792503357</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8939405679702759</v>
+        <v>0.9860233068466187</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.667594850063324</v>
+        <v>0.9888033270835876</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4200451076030731</v>
+        <v>0.9854816198348999</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8592759966850281</v>
+        <v>0.7874753475189209</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.8104676604270935</v>
+        <v>0.9966097474098206</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5929194688796997</v>
+        <v>0.9297758936882019</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8542280197143555</v>
+        <v>0.7500908374786377</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.3005456030368805</v>
+        <v>0.9733816385269165</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7298462986946106</v>
+        <v>0.9973257780075073</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9396309852600098</v>
+        <v>0.9627339243888855</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7911334037780762</v>
+        <v>0.9401469826698303</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7508180141448975</v>
+        <v>0.6143686175346375</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.778193473815918</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5484247803688049</v>
+        <v>0.9401469826698303</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3937979340553284</v>
+        <v>0.8070824146270752</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5443177223205566</v>
+        <v>0.9983876943588257</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7674638628959656</v>
+        <v>0.9867998361587524</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9460206031799316</v>
+        <v>0.9957102537155151</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9565678238868713</v>
+        <v>0.9867998361587524</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.943368136882782</v>
+        <v>0.9867998361587524</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8401423692703247</v>
+        <v>0.9957102537155151</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.8063591122627258</v>
+        <v>0.9895312786102295</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8382750749588013</v>
+        <v>0.9677236676216125</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9461594223976135</v>
+        <v>0.9925926327705383</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6567717790603638</v>
+        <v>0.9398270845413208</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5870817899703979</v>
+        <v>0.9813969135284424</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.925769031047821</v>
+        <v>0.9603311419487</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7110243439674377</v>
+        <v>0.9977329969406128</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5051136612892151</v>
+        <v>0.9976767897605896</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7967677116394043</v>
+        <v>0.9811541438102722</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9745217561721802</v>
+        <v>0.9409480094909668</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.3982966244220734</v>
+        <v>0.9931465983390808</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.942744255065918</v>
+        <v>0.9974523186683655</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4889002442359924</v>
+        <v>0.9995843768119812</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8558799028396606</v>
+        <v>0.7040277123451233</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8686931133270264</v>
+        <v>0.9952487349510193</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.8297938704490662</v>
+        <v>0.9166929721832275</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8063591122627258</v>
+        <v>0.9504801630973816</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7596214413642883</v>
+        <v>0.8410449028015137</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9606813192367554</v>
+        <v>0.9989301562309265</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7032353281974792</v>
+        <v>0.9991279244422913</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9760028719902039</v>
+        <v>0.9984400868415833</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.493806391954422</v>
+        <v>0.9572497010231018</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4917432069778442</v>
+        <v>0.6378214359283447</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4779258370399475</v>
+        <v>0.998650848865509</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.8407426476478577</v>
+        <v>0.6722072958946228</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8737789392471313</v>
+        <v>0.8504480123519897</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6934608817100525</v>
+        <v>0.9647210240364075</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7036116123199463</v>
+        <v>0.8880287408828735</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5492963194847107</v>
+        <v>0.999421238899231</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4260589778423309</v>
+        <v>0.9684227705001831</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7911334037780762</v>
+        <v>0.960773229598999</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8269875049591064</v>
+        <v>0.7724922299385071</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5749620199203491</v>
+        <v>0.9950256943702698</v>
       </c>
     </row>
   </sheetData>
